--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H2">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I2">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J2">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>4.397134414536889</v>
+        <v>0.09882491543822221</v>
       </c>
       <c r="R2">
-        <v>39.574209730832</v>
+        <v>0.8894242389439999</v>
       </c>
       <c r="S2">
-        <v>0.0007365341891644681</v>
+        <v>3.063306847497389E-05</v>
       </c>
       <c r="T2">
-        <v>0.000736534189164468</v>
+        <v>3.063306847497389E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H3">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I3">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J3">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
-        <v>78.02022370992422</v>
+        <v>4.441640685992889</v>
       </c>
       <c r="R3">
-        <v>702.1820133893179</v>
+        <v>39.974766173936</v>
       </c>
       <c r="S3">
-        <v>0.01306863897965959</v>
+        <v>0.001376789270923335</v>
       </c>
       <c r="T3">
-        <v>0.01306863897965959</v>
+        <v>0.001376789270923335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H4">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I4">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J4">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>37.00623884926422</v>
+        <v>2.232588933304889</v>
       </c>
       <c r="R4">
-        <v>333.056149643378</v>
+        <v>20.093300399744</v>
       </c>
       <c r="S4">
-        <v>0.006198664301632484</v>
+        <v>0.0006920425822489111</v>
       </c>
       <c r="T4">
-        <v>0.006198664301632482</v>
+        <v>0.0006920425822489111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>6.510933889659555</v>
+        <v>2.570418060456222</v>
       </c>
       <c r="R5">
-        <v>58.59840500693601</v>
+        <v>23.133762544106</v>
       </c>
       <c r="S5">
-        <v>0.001090602415352574</v>
+        <v>0.0007967605345889433</v>
       </c>
       <c r="T5">
-        <v>0.001090602415352574</v>
+        <v>0.0007967605345889433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
         <v>115.5262656862099</v>
@@ -818,10 +818,10 @@
         <v>1039.736391175889</v>
       </c>
       <c r="S6">
-        <v>0.01935102191624797</v>
+        <v>0.03581003830593672</v>
       </c>
       <c r="T6">
-        <v>0.01935102191624797</v>
+        <v>0.03581003830593672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>54.7959538957799</v>
+        <v>58.0692317346729</v>
       </c>
       <c r="R7">
-        <v>493.1635850620191</v>
+        <v>522.6230856120561</v>
       </c>
       <c r="S7">
-        <v>0.009178498919363259</v>
+        <v>0.01799990158483218</v>
       </c>
       <c r="T7">
-        <v>0.009178498919363254</v>
+        <v>0.01799990158483218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H8">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I8">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J8">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N8">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q8">
-        <v>208.906475831696</v>
+        <v>44.40223434161422</v>
       </c>
       <c r="R8">
-        <v>1880.158282485264</v>
+        <v>399.620109074528</v>
       </c>
       <c r="S8">
-        <v>0.03499250813876022</v>
+        <v>0.01376349960935493</v>
       </c>
       <c r="T8">
-        <v>0.03499250813876022</v>
+        <v>0.01376349960935493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H9">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I9">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J9">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>248.871689</v>
       </c>
       <c r="O9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q9">
-        <v>3706.716338931254</v>
+        <v>1995.638141719337</v>
       </c>
       <c r="R9">
-        <v>33360.44705038128</v>
+        <v>17960.74327547403</v>
       </c>
       <c r="S9">
-        <v>0.6208869358488684</v>
+        <v>0.6185942034503787</v>
       </c>
       <c r="T9">
-        <v>0.6208869358488683</v>
+        <v>0.6185942034503787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H10">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I10">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J10">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N10">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q10">
-        <v>1758.154791954434</v>
+        <v>1003.106722282681</v>
       </c>
       <c r="R10">
-        <v>15823.3931275899</v>
+        <v>9027.960500544128</v>
       </c>
       <c r="S10">
-        <v>0.2944965952909511</v>
+        <v>0.3109361315932613</v>
       </c>
       <c r="T10">
-        <v>0.294496595290951</v>
+        <v>0.3109361315932613</v>
       </c>
     </row>
   </sheetData>
